--- a/My_application/third_party/PHPExcel/finance/test4.xlsx
+++ b/My_application/third_party/PHPExcel/finance/test4.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Genny\Desktop\Mind Cloud Tribe\Videos\Videos 11_13_14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\cloud\My_application\third_party\PHPExcel\finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E32CDFC-A887-4296-B9F6-A51B1BD58F62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="DCF" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -68,7 +67,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$AED]\ #,##0.0_);[Red]\([$AED]\ #,##0.0\)"/>
     <numFmt numFmtId="165" formatCode="[$AED]\ #,##0.00"/>
@@ -361,23 +360,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -413,23 +395,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -605,27 +570,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.81640625" customWidth="1"/>
-    <col min="2" max="2" width="25.453125" customWidth="1"/>
-    <col min="3" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="19.81640625" customWidth="1"/>
-    <col min="8" max="8" width="26.54296875" customWidth="1"/>
-    <col min="9" max="9" width="3.453125" customWidth="1"/>
-    <col min="10" max="10" width="1.81640625" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="10" max="10" width="1.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="48.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="48.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>4</v>
       </c>
@@ -637,7 +602,7 @@
       <c r="G1" s="7"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -647,7 +612,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="19" t="s">
@@ -667,7 +632,7 @@
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>10</v>
       </c>
@@ -681,29 +646,33 @@
       <c r="G4" s="5"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12">
-        <v>395000</v>
+        <v>1000</v>
       </c>
       <c r="D5" s="12">
-        <v>825000</v>
+        <f>C5*(1+B4/100)</f>
+        <v>1200</v>
       </c>
       <c r="E5" s="12">
-        <v>1827000</v>
+        <f>D5*(1+B4/100)</f>
+        <v>1440</v>
       </c>
       <c r="F5" s="12">
-        <v>2150000</v>
+        <f>E5*(1+B4/100)</f>
+        <v>1728</v>
       </c>
       <c r="G5" s="12">
-        <v>3000000</v>
+        <f>F5*(1+B4/100)</f>
+        <v>2073.6</v>
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="6"/>
@@ -713,7 +682,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -723,13 +692,13 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="16"/>
@@ -737,7 +706,7 @@
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -747,34 +716,34 @@
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="18">
         <f>C5/(1+C8/100)</f>
-        <v>359090.90909090906</v>
+        <v>869.56521739130437</v>
       </c>
       <c r="D10" s="18">
         <f>D5/(1+C8/100)^2</f>
-        <v>681818.18181818177</v>
+        <v>907.37240075614386</v>
       </c>
       <c r="E10" s="18">
         <f>E5/(1+C8/100)^3</f>
-        <v>1372652.1412471822</v>
+        <v>946.82337470206323</v>
       </c>
       <c r="F10" s="18">
         <f>F5/(1+C8/100)^4</f>
-        <v>1468478.9290349016</v>
+        <v>987.98960838476171</v>
       </c>
       <c r="G10" s="18">
         <f>G5/(1+C8/100)^5</f>
-        <v>1862763.969177465</v>
+        <v>1030.9456783145338</v>
       </c>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -786,10 +755,10 @@
       </c>
       <c r="H11" s="14">
         <f>SUM(C10:G10)</f>
-        <v>5744804.1303686397</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+        <v>4742.6962795488071</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -799,7 +768,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -809,7 +778,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -819,7 +788,7 @@
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -829,7 +798,7 @@
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -839,7 +808,7 @@
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -849,7 +818,7 @@
       <c r="G17" s="8"/>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -859,7 +828,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -869,7 +838,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -879,7 +848,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -889,7 +858,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -899,7 +868,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>

--- a/My_application/third_party/PHPExcel/finance/test4.xlsx
+++ b/My_application/third_party/PHPExcel/finance/test4.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Net Profit</t>
   </si>
@@ -62,17 +62,21 @@
   </si>
   <si>
     <t>Growth Rate</t>
+  </si>
+  <si>
+    <t>Currency</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$AED]\ #,##0.0_);[Red]\([$AED]\ #,##0.0\)"/>
     <numFmt numFmtId="165" formatCode="[$AED]\ #,##0.00"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +156,20 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -225,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -250,7 +268,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -264,8 +281,15 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,28 +639,28 @@
     <row r="3" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="20">
         <v>20</v>
       </c>
       <c r="C4" s="5"/>
@@ -693,78 +717,80 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14">
         <v>15</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18">
+      <c r="B10" s="16"/>
+      <c r="C10" s="17">
         <f>C5/(1+C8/100)</f>
         <v>869.56521739130437</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="17">
         <f>D5/(1+C8/100)^2</f>
         <v>907.37240075614386</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="17">
         <f>E5/(1+C8/100)^3</f>
         <v>946.82337470206323</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="17">
         <f>F5/(1+C8/100)^4</f>
         <v>987.98960838476171</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="17">
         <f>G5/(1+C8/100)^5</f>
         <v>1030.9456783145338</v>
       </c>
-      <c r="H10" s="16"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="21">
         <f>SUM(C10:G10)</f>
         <v>4742.6962795488071</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
+    <row r="12" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>

--- a/My_application/third_party/PHPExcel/finance/test4.xlsx
+++ b/My_application/third_party/PHPExcel/finance/test4.xlsx
@@ -72,9 +72,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$AED]\ #,##0.0_);[Red]\([$AED]\ #,##0.0\)"/>
     <numFmt numFmtId="165" formatCode="[$AED]\ #,##0.00"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;?_);_(@_)"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -266,12 +266,10 @@
     <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="38" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -281,16 +279,18 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="168" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,7 +598,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B12"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,10 +615,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="48.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -639,28 +639,28 @@
     <row r="3" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="16" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="18">
         <v>20</v>
       </c>
       <c r="C4" s="5"/>
@@ -675,22 +675,22 @@
         <v>0</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="12">
+      <c r="C5" s="22">
         <v>1000</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="22">
         <f>C5*(1+B4/100)</f>
         <v>1200</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="22">
         <f>D5*(1+B4/100)</f>
         <v>1440</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="22">
         <f>E5*(1+B4/100)</f>
         <v>1728</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="22">
         <f>F5*(1+B4/100)</f>
         <v>2073.6</v>
       </c>
@@ -717,82 +717,82 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13">
         <v>15</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17">
+      <c r="B10" s="15"/>
+      <c r="C10" s="21">
         <f>C5/(1+C8/100)</f>
         <v>869.56521739130437</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="21">
         <f>D5/(1+C8/100)^2</f>
         <v>907.37240075614386</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="21">
         <f>E5/(1+C8/100)^3</f>
         <v>946.82337470206323</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="21">
         <f>F5/(1+C8/100)^4</f>
         <v>987.98960838476171</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="21">
         <f>G5/(1+C8/100)^5</f>
         <v>1030.9456783145338</v>
       </c>
-      <c r="H10" s="15"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="13" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="24">
         <f>SUM(C10:G10)</f>
         <v>4742.6962795488071</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
